--- a/motosdetenidas/motos2.xlsx
+++ b/motosdetenidas/motos2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\controlmotos\motosdetenidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{531EAF9A-5C81-4D9D-A67B-9E6850B42CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAF173B-965C-492C-8954-2789FDB0B184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11295" xr2:uid="{A92E468E-1E13-411C-AF44-796E63348ACC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">COD </t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>HONDA</t>
-  </si>
-  <si>
-    <t>KAWASAKI</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,8 +498,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="C4" s="1">
+        <v>8415151</v>
       </c>
     </row>
   </sheetData>
